--- a/biology/Origine et évolution du vivant/Lepus_granatensis_solisi/Lepus_granatensis_solisi.xlsx
+++ b/biology/Origine et évolution du vivant/Lepus_granatensis_solisi/Lepus_granatensis_solisi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepus granatensis solisi, communément appelé Lièvre de Majorque, est une sous-espèce du Lièvre ibérique, de Majorque, en Espagne.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Lepus granatensis solisi a été décrite en 1992 par Fernando Palacios Arribas (d) et José Fernández López (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Lepus granatensis solisi a été décrite en 1992 par Fernando Palacios Arribas (d) et José Fernández López (d).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) F. Palacios et J. Fernández, « A new subspecies of hare from Majorca (Balearic Islands) », Mammalia, De Gruyter, vol. 56, no 1,‎ 1992, p. 71-86 (ISSN 0025-1461 et 1864-1547, DOI 10.1515/MAMM.1992.56.1.71)</t>
         </is>
